--- a/resources/experiment 1/predictions/single/RandomForestRegressor/QALY.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/QALY.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18.38788409489788</v>
+        <v>18.47453410478584</v>
       </c>
       <c r="B2" t="n">
-        <v>12.16055518011771</v>
+        <v>12.15840038389621</v>
       </c>
       <c r="C2" t="n">
-        <v>23.76957809009167</v>
+        <v>23.73890881088179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20.67128047915463</v>
+        <v>20.69927875196798</v>
       </c>
       <c r="B3" t="n">
-        <v>16.06459547494002</v>
+        <v>16.12360934460579</v>
       </c>
       <c r="C3" t="n">
-        <v>24.59023799060764</v>
+        <v>24.68925092425341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20.32252244364981</v>
+        <v>20.31579241777433</v>
       </c>
       <c r="B4" t="n">
-        <v>15.8440973197317</v>
+        <v>15.65180638030963</v>
       </c>
       <c r="C4" t="n">
-        <v>23.94362338939334</v>
+        <v>23.91459789473231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25.12370480057278</v>
+        <v>25.19350774608662</v>
       </c>
       <c r="B5" t="n">
-        <v>19.69668218762901</v>
+        <v>20.01858622958437</v>
       </c>
       <c r="C5" t="n">
-        <v>29.73954348669963</v>
+        <v>29.7536787166161</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24.3966875368232</v>
+        <v>24.47270220256332</v>
       </c>
       <c r="B6" t="n">
-        <v>18.10853371666739</v>
+        <v>18.51811415773333</v>
       </c>
       <c r="C6" t="n">
-        <v>29.60002817078145</v>
+        <v>29.71866506913102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16.76517517992738</v>
+        <v>16.74230273519213</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5824671026219</v>
+        <v>11.57602230804374</v>
       </c>
       <c r="C7" t="n">
-        <v>21.46721022022144</v>
+        <v>21.5590412241435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.621908935259405</v>
+        <v>9.613837263511396</v>
       </c>
       <c r="B8" t="n">
-        <v>5.038436380877759</v>
+        <v>5.334797848705129</v>
       </c>
       <c r="C8" t="n">
-        <v>14.2322922335167</v>
+        <v>14.09229993322819</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22.61621044695185</v>
+        <v>22.53343943542593</v>
       </c>
       <c r="B9" t="n">
-        <v>17.6116366260731</v>
+        <v>17.34581389443653</v>
       </c>
       <c r="C9" t="n">
-        <v>27.35464394387473</v>
+        <v>27.29305688722882</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.02757355505216</v>
+        <v>9.985389128790441</v>
       </c>
       <c r="B10" t="n">
-        <v>5.003488589000475</v>
+        <v>4.862945197225781</v>
       </c>
       <c r="C10" t="n">
-        <v>15.11707007309013</v>
+        <v>14.93085509888761</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15.65820713704625</v>
+        <v>15.78375775608151</v>
       </c>
       <c r="B11" t="n">
-        <v>9.093422307411295</v>
+        <v>9.059611242895151</v>
       </c>
       <c r="C11" t="n">
-        <v>21.47568075232401</v>
+        <v>21.69902176443171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23.60303079140712</v>
+        <v>23.5761827849423</v>
       </c>
       <c r="B12" t="n">
-        <v>16.06731681611438</v>
+        <v>15.67812248077889</v>
       </c>
       <c r="C12" t="n">
-        <v>30.90497065331462</v>
+        <v>31.1374495987938</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.31759544354604</v>
+        <v>12.12730704303809</v>
       </c>
       <c r="B13" t="n">
-        <v>5.314515772755814</v>
+        <v>5.022912108970725</v>
       </c>
       <c r="C13" t="n">
-        <v>18.64168476400608</v>
+        <v>18.60620167464742</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.32048451129398</v>
+        <v>13.33393133206784</v>
       </c>
       <c r="B14" t="n">
-        <v>7.220468844656916</v>
+        <v>7.093135776746295</v>
       </c>
       <c r="C14" t="n">
-        <v>19.60659970731882</v>
+        <v>19.53202552748217</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>28.63990312239546</v>
+        <v>28.70658342781184</v>
       </c>
       <c r="B15" t="n">
-        <v>21.92438992255157</v>
+        <v>21.90682976235371</v>
       </c>
       <c r="C15" t="n">
-        <v>34.53231706579241</v>
+        <v>34.8017527147783</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>24.37923972874542</v>
+        <v>24.43374594214981</v>
       </c>
       <c r="B16" t="n">
-        <v>18.09686365361915</v>
+        <v>18.37715526893616</v>
       </c>
       <c r="C16" t="n">
-        <v>29.58588720930485</v>
+        <v>29.58913328901266</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23.70951577105572</v>
+        <v>23.66726532860142</v>
       </c>
       <c r="B17" t="n">
-        <v>16.08186794744536</v>
+        <v>16.26989691901897</v>
       </c>
       <c r="C17" t="n">
-        <v>30.51519498178965</v>
+        <v>30.47784804171852</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>20.32026257508856</v>
+        <v>20.29639955216287</v>
       </c>
       <c r="B18" t="n">
-        <v>15.84298602026453</v>
+        <v>15.64024316297008</v>
       </c>
       <c r="C18" t="n">
-        <v>23.9706978653462</v>
+        <v>23.90740259015658</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16.36847145633079</v>
+        <v>16.40746201441004</v>
       </c>
       <c r="B19" t="n">
-        <v>8.953457453763351</v>
+        <v>8.687921097340558</v>
       </c>
       <c r="C19" t="n">
-        <v>24.0689199566416</v>
+        <v>24.23974881310412</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>26.86383340229052</v>
+        <v>26.94254793169214</v>
       </c>
       <c r="B20" t="n">
-        <v>19.83436626753831</v>
+        <v>19.33853268067864</v>
       </c>
       <c r="C20" t="n">
-        <v>33.85362407237031</v>
+        <v>34.07402041307092</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>27.72455444502067</v>
+        <v>27.50687703928825</v>
       </c>
       <c r="B21" t="n">
-        <v>21.39165818146775</v>
+        <v>21.37140808661711</v>
       </c>
       <c r="C21" t="n">
-        <v>33.42669379715719</v>
+        <v>33.05494165152641</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>10.60032931518435</v>
+        <v>10.60745770024984</v>
       </c>
       <c r="B22" t="n">
-        <v>4.749436621837036</v>
+        <v>5.045099259466177</v>
       </c>
       <c r="C22" t="n">
-        <v>16.30593393521292</v>
+        <v>16.27946326543118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>30.24720461089452</v>
+        <v>30.27397652764357</v>
       </c>
       <c r="B23" t="n">
-        <v>22.91059856675641</v>
+        <v>23.15707734968162</v>
       </c>
       <c r="C23" t="n">
-        <v>36.90994029974649</v>
+        <v>36.83926127608205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24.40944286221054</v>
+        <v>24.43361137443287</v>
       </c>
       <c r="B24" t="n">
-        <v>18.09686365361915</v>
+        <v>18.41428501713848</v>
       </c>
       <c r="C24" t="n">
-        <v>29.6007603647159</v>
+        <v>29.57863333728151</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20.9528204836338</v>
+        <v>20.90608493956147</v>
       </c>
       <c r="B25" t="n">
-        <v>15.78687514613939</v>
+        <v>15.57031038888938</v>
       </c>
       <c r="C25" t="n">
-        <v>25.30917885483777</v>
+        <v>25.27508449703469</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>27.76202480697307</v>
+        <v>27.6998310035032</v>
       </c>
       <c r="B26" t="n">
-        <v>21.46699992195998</v>
+        <v>21.32129850465838</v>
       </c>
       <c r="C26" t="n">
-        <v>33.39193767480256</v>
+        <v>33.65033986061898</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.95008454485336</v>
+        <v>12.78481961367045</v>
       </c>
       <c r="B27" t="n">
-        <v>5.434218278478957</v>
+        <v>4.980935237562744</v>
       </c>
       <c r="C27" t="n">
-        <v>20.68638346503849</v>
+        <v>20.78903088820732</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>17.71163952406428</v>
+        <v>17.70047528569038</v>
       </c>
       <c r="B28" t="n">
-        <v>12.13300831898529</v>
+        <v>12.17049151683925</v>
       </c>
       <c r="C28" t="n">
-        <v>23.0339776993845</v>
+        <v>22.93122711681796</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>32.09898962076743</v>
+        <v>32.20812374554371</v>
       </c>
       <c r="B29" t="n">
-        <v>23.3222597802419</v>
+        <v>24.03773961837921</v>
       </c>
       <c r="C29" t="n">
-        <v>39.5382661683221</v>
+        <v>39.43368261944684</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>22.58004681582263</v>
+        <v>22.55202366977467</v>
       </c>
       <c r="B30" t="n">
-        <v>15.64343180303006</v>
+        <v>15.96510352916992</v>
       </c>
       <c r="C30" t="n">
-        <v>28.40110124894232</v>
+        <v>28.32859392310145</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13.04270300619601</v>
+        <v>13.05967691509111</v>
       </c>
       <c r="B31" t="n">
-        <v>7.091726310950135</v>
+        <v>6.93618352165032</v>
       </c>
       <c r="C31" t="n">
-        <v>18.44730157919033</v>
+        <v>18.57583385781128</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11.01528232526937</v>
+        <v>10.9945607980956</v>
       </c>
       <c r="B32" t="n">
-        <v>5.974216081454613</v>
+        <v>6.500940091135796</v>
       </c>
       <c r="C32" t="n">
-        <v>15.92480935486508</v>
+        <v>15.8303504910484</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>13.46749825941855</v>
+        <v>13.47393129040054</v>
       </c>
       <c r="B33" t="n">
-        <v>7.280521258285302</v>
+        <v>7.338669279392564</v>
       </c>
       <c r="C33" t="n">
-        <v>19.42558817911377</v>
+        <v>19.29556175034782</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>20.03459312665922</v>
+        <v>19.81657141236616</v>
       </c>
       <c r="B34" t="n">
-        <v>12.40742218590995</v>
+        <v>11.93275845174982</v>
       </c>
       <c r="C34" t="n">
-        <v>27.53708657755274</v>
+        <v>27.47706320234663</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>25.50791808543797</v>
+        <v>25.39631057074351</v>
       </c>
       <c r="B35" t="n">
-        <v>19.18055639376595</v>
+        <v>18.76277557784498</v>
       </c>
       <c r="C35" t="n">
-        <v>30.99443871379417</v>
+        <v>30.92541926651926</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16.7640703231042</v>
+        <v>16.73615157229322</v>
       </c>
       <c r="B36" t="n">
-        <v>11.67254961236912</v>
+        <v>11.70752942363443</v>
       </c>
       <c r="C36" t="n">
-        <v>21.3749382864648</v>
+        <v>21.38235966681745</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>29.27422820439924</v>
+        <v>29.31794840790199</v>
       </c>
       <c r="B37" t="n">
-        <v>22.27436419831689</v>
+        <v>21.86108562213212</v>
       </c>
       <c r="C37" t="n">
-        <v>35.96516841072174</v>
+        <v>35.94844393382063</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14.40465316102472</v>
+        <v>14.49187937023411</v>
       </c>
       <c r="B38" t="n">
-        <v>7.133720704874731</v>
+        <v>7.533407113693881</v>
       </c>
       <c r="C38" t="n">
-        <v>21.43159219320731</v>
+        <v>21.39436623733113</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>24.0667918039607</v>
+        <v>24.17243399364451</v>
       </c>
       <c r="B39" t="n">
-        <v>16.98936191116735</v>
+        <v>17.10327535258527</v>
       </c>
       <c r="C39" t="n">
-        <v>31.8122523487342</v>
+        <v>31.79179330120244</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>24.24680283712746</v>
+        <v>24.21146517580116</v>
       </c>
       <c r="B40" t="n">
-        <v>19.28406744623991</v>
+        <v>18.66431322254551</v>
       </c>
       <c r="C40" t="n">
-        <v>28.99874757346659</v>
+        <v>28.87993533120542</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15.63177912518099</v>
+        <v>15.66052117592052</v>
       </c>
       <c r="B41" t="n">
-        <v>11.19114477009254</v>
+        <v>11.18422630364136</v>
       </c>
       <c r="C41" t="n">
-        <v>20.02723255699967</v>
+        <v>20.09448568560348</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>16.02803325549333</v>
+        <v>16.09421480737154</v>
       </c>
       <c r="B42" t="n">
-        <v>9.503169726504165</v>
+        <v>9.780909348882759</v>
       </c>
       <c r="C42" t="n">
-        <v>22.16259106507959</v>
+        <v>22.21550553880288</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22.56033969717858</v>
+        <v>22.5527866277756</v>
       </c>
       <c r="B43" t="n">
-        <v>15.51085858141618</v>
+        <v>15.94620221459947</v>
       </c>
       <c r="C43" t="n">
-        <v>28.37681989955831</v>
+        <v>28.30399307553023</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>13.62170809649662</v>
+        <v>13.60482624074503</v>
       </c>
       <c r="B44" t="n">
-        <v>9.251682605645781</v>
+        <v>9.001622333057654</v>
       </c>
       <c r="C44" t="n">
-        <v>17.80998687324209</v>
+        <v>17.76655863288588</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16.97570230136335</v>
+        <v>16.95044057077782</v>
       </c>
       <c r="B45" t="n">
-        <v>10.18503692432043</v>
+        <v>10.44860351656015</v>
       </c>
       <c r="C45" t="n">
-        <v>23.62590621244961</v>
+        <v>24.02009461033913</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>12.32982011358671</v>
+        <v>12.31262839425655</v>
       </c>
       <c r="B46" t="n">
-        <v>7.305029625352359</v>
+        <v>7.234325810281641</v>
       </c>
       <c r="C46" t="n">
-        <v>17.04628200429356</v>
+        <v>17.04977206542621</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11.01704318187843</v>
+        <v>10.88285966439648</v>
       </c>
       <c r="B47" t="n">
-        <v>4.726234567258998</v>
+        <v>4.555652730229136</v>
       </c>
       <c r="C47" t="n">
-        <v>17.16522457579152</v>
+        <v>17.16913693726036</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23.6650331071345</v>
+        <v>23.6084153290437</v>
       </c>
       <c r="B48" t="n">
-        <v>16.08274039951077</v>
+        <v>15.7499856885759</v>
       </c>
       <c r="C48" t="n">
-        <v>31.17169213063492</v>
+        <v>31.19390603122809</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22.16436817241035</v>
+        <v>22.04927863846541</v>
       </c>
       <c r="B49" t="n">
-        <v>17.61469674510072</v>
+        <v>17.12919413104799</v>
       </c>
       <c r="C49" t="n">
-        <v>26.45401344694965</v>
+        <v>26.36772188528159</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>29.05569627203418</v>
+        <v>29.12547256439923</v>
       </c>
       <c r="B50" t="n">
-        <v>22.25785642480367</v>
+        <v>21.51840229715238</v>
       </c>
       <c r="C50" t="n">
-        <v>35.83959453342992</v>
+        <v>35.84227765733107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>20.68974140831916</v>
+        <v>20.71627673966479</v>
       </c>
       <c r="B51" t="n">
-        <v>16.04118056338056</v>
+        <v>16.12880032756508</v>
       </c>
       <c r="C51" t="n">
-        <v>24.59346806824318</v>
+        <v>24.70080677618954</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11.85177066852567</v>
+        <v>11.8743807951967</v>
       </c>
       <c r="B52" t="n">
-        <v>7.269705729961562</v>
+        <v>7.304541432368743</v>
       </c>
       <c r="C52" t="n">
-        <v>16.12680178923179</v>
+        <v>16.10979117430914</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>24.22602888981122</v>
+        <v>24.22573719013922</v>
       </c>
       <c r="B53" t="n">
-        <v>17.15577006640169</v>
+        <v>17.35141147657535</v>
       </c>
       <c r="C53" t="n">
-        <v>31.61106656711556</v>
+        <v>31.64386707181844</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>28.83093442195273</v>
+        <v>28.84507553898488</v>
       </c>
       <c r="B54" t="n">
-        <v>21.95235581545993</v>
+        <v>21.9143139934278</v>
       </c>
       <c r="C54" t="n">
-        <v>34.74934557377475</v>
+        <v>34.98368190490864</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>27.76654838352125</v>
+        <v>27.74152265453415</v>
       </c>
       <c r="B55" t="n">
-        <v>21.41962407437612</v>
+        <v>20.95179187029396</v>
       </c>
       <c r="C55" t="n">
-        <v>33.50917873300105</v>
+        <v>33.31416531448477</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>13.0635202931098</v>
+        <v>13.01684693258103</v>
       </c>
       <c r="B56" t="n">
-        <v>7.325620362855993</v>
+        <v>7.203034533340197</v>
       </c>
       <c r="C56" t="n">
-        <v>18.54876001977709</v>
+        <v>18.64129468933451</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11.01337502987728</v>
+        <v>10.9945607980956</v>
       </c>
       <c r="B57" t="n">
-        <v>5.979724495606554</v>
+        <v>6.500940091135796</v>
       </c>
       <c r="C57" t="n">
-        <v>15.88017593023847</v>
+        <v>15.8303504910484</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>29.29964701165951</v>
+        <v>29.27627171089414</v>
       </c>
       <c r="B58" t="n">
-        <v>22.29488656727771</v>
+        <v>22.31669803358166</v>
       </c>
       <c r="C58" t="n">
-        <v>35.80348351439214</v>
+        <v>35.63809765937265</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>14.78788582283403</v>
+        <v>14.77627736571667</v>
       </c>
       <c r="B59" t="n">
-        <v>9.176061896237739</v>
+        <v>9.028798426925272</v>
       </c>
       <c r="C59" t="n">
-        <v>20.29947575608987</v>
+        <v>20.32697394163779</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>30.04015003220721</v>
+        <v>30.02388602507967</v>
       </c>
       <c r="B60" t="n">
-        <v>22.8669622066082</v>
+        <v>22.64657327369743</v>
       </c>
       <c r="C60" t="n">
-        <v>36.85282649452448</v>
+        <v>36.82523547901404</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13.8610428944309</v>
+        <v>13.82853365080115</v>
       </c>
       <c r="B61" t="n">
-        <v>7.336836290180282</v>
+        <v>7.647152705208994</v>
       </c>
       <c r="C61" t="n">
-        <v>19.97644062455965</v>
+        <v>19.64864491776657</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>15.66061302016012</v>
+        <v>15.80761741145067</v>
       </c>
       <c r="B62" t="n">
-        <v>9.30224883416736</v>
+        <v>9.228955496495228</v>
       </c>
       <c r="C62" t="n">
-        <v>21.45266307508496</v>
+        <v>21.64422216632413</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>14.47438932729584</v>
+        <v>14.44145019087484</v>
       </c>
       <c r="B63" t="n">
-        <v>7.188723301736956</v>
+        <v>7.730723531660597</v>
       </c>
       <c r="C63" t="n">
-        <v>22.01604623926455</v>
+        <v>22.1713894330229</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>30.1952298109176</v>
+        <v>30.06625723098194</v>
       </c>
       <c r="B64" t="n">
-        <v>22.8669622066082</v>
+        <v>22.65005458868843</v>
       </c>
       <c r="C64" t="n">
-        <v>36.88421366616904</v>
+        <v>36.8618267285462</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.49011309252505</v>
+        <v>10.49762901288996</v>
       </c>
       <c r="B65" t="n">
-        <v>5.989310897030582</v>
+        <v>6.398557959679606</v>
       </c>
       <c r="C65" t="n">
-        <v>15.08956755564691</v>
+        <v>15.03607425900588</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>19.62996404574354</v>
+        <v>19.5814779793238</v>
       </c>
       <c r="B66" t="n">
-        <v>12.19642776470348</v>
+        <v>11.71369304427932</v>
       </c>
       <c r="C66" t="n">
-        <v>26.96933180359785</v>
+        <v>27.07108568088774</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>19.15221050912404</v>
+        <v>19.25963022363516</v>
       </c>
       <c r="B67" t="n">
-        <v>12.31450419109072</v>
+        <v>12.63348529102075</v>
       </c>
       <c r="C67" t="n">
-        <v>25.02422719754161</v>
+        <v>25.10167968610517</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>25.85033280578356</v>
+        <v>25.82377520280117</v>
       </c>
       <c r="B68" t="n">
-        <v>19.95086175700782</v>
+        <v>19.80462145683063</v>
       </c>
       <c r="C68" t="n">
-        <v>31.40810911267668</v>
+        <v>31.48243684444612</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.16876040851643</v>
+        <v>11.24608654119153</v>
       </c>
       <c r="B69" t="n">
-        <v>4.698110753167181</v>
+        <v>4.786728753815812</v>
       </c>
       <c r="C69" t="n">
-        <v>17.15399569151994</v>
+        <v>17.18131032210431</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>24.22004888038128</v>
+        <v>24.13254753763742</v>
       </c>
       <c r="B70" t="n">
-        <v>19.25463286989512</v>
+        <v>18.73806096368129</v>
       </c>
       <c r="C70" t="n">
-        <v>29.05333644786397</v>
+        <v>29.09301285792912</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>17.67847513250483</v>
+        <v>17.65703593128963</v>
       </c>
       <c r="B71" t="n">
-        <v>13.36471716764309</v>
+        <v>13.26032951098136</v>
       </c>
       <c r="C71" t="n">
-        <v>21.80346032394766</v>
+        <v>21.76138442850016</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>20.29544562740355</v>
+        <v>20.29658012299004</v>
       </c>
       <c r="B72" t="n">
-        <v>15.21371687940082</v>
+        <v>15.07842494988894</v>
       </c>
       <c r="C72" t="n">
-        <v>25.1997153985539</v>
+        <v>25.19781970757816</v>
       </c>
     </row>
   </sheetData>
